--- a/Luban/LubanConfig/Datas/#LevelData.xlsx
+++ b/Luban/LubanConfig/Datas/#LevelData.xlsx
@@ -1,40 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learn\tower-defense-tengine-demo\Configs\GameConfig\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\TowerDefenseDemo\TowerDefense-TEngine-Demo\Luban\LubanConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E13D0AB-41A9-4378-996A-E6514BEC25B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCCDC8A-138C-44B5-B2BE-3037EFECB825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3735" yWindow="2565" windowWidth="21390" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
   <si>
     <t>##var</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -216,6 +207,14 @@
   </si>
   <si>
     <t>0,27.347,00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitHp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始生命值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -545,28 +544,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA9"/>
+  <dimension ref="A1:AB9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="11.58203125" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" customWidth="1"/>
-    <col min="7" max="7" width="12.9140625" customWidth="1"/>
-    <col min="8" max="8" width="35.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="31.33203125" customWidth="1"/>
-    <col min="10" max="17" width="6.08203125" customWidth="1"/>
-    <col min="18" max="18" width="8" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="8.6640625" hidden="1" customWidth="1"/>
-    <col min="20" max="21" width="4.6640625" customWidth="1"/>
-    <col min="22" max="27" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" customWidth="1"/>
+    <col min="5" max="5" width="13.625" customWidth="1"/>
+    <col min="6" max="7" width="12.125" customWidth="1"/>
+    <col min="8" max="8" width="12.875" customWidth="1"/>
+    <col min="9" max="9" width="35.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="31.375" customWidth="1"/>
+    <col min="11" max="18" width="6.125" customWidth="1"/>
+    <col min="19" max="19" width="8" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="8.625" hidden="1" customWidth="1"/>
+    <col min="21" max="22" width="4.625" customWidth="1"/>
+    <col min="23" max="28" width="4.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -586,18 +585,20 @@
         <v>23</v>
       </c>
       <c r="G1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
@@ -608,16 +609,17 @@
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="2"/>
+      <c r="W1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="W1" s="2"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -639,16 +641,18 @@
       <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -659,16 +663,17 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
-      <c r="V2" s="2" t="s">
+      <c r="V2" s="2"/>
+      <c r="W2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W2" s="2"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -690,16 +695,18 @@
       <c r="G3" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" t="s">
         <v>9</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="2"/>
+      <c r="K3" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -710,16 +717,17 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
-      <c r="V3" s="2" t="s">
+      <c r="V3" s="2"/>
+      <c r="W3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="W3" s="2"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -739,18 +747,20 @@
         <v>37</v>
       </c>
       <c r="G4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -761,16 +771,17 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
-      <c r="V4" s="2" t="s">
+      <c r="V4" s="2"/>
+      <c r="W4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="W4" s="2"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>1</v>
       </c>
@@ -787,61 +798,64 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>46</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>1001</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>1002</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>1003</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>1004</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>1005</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>1006</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>1007</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>1008</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>1009</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>1010</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>1009</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>1010</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>101</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>102</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>2</v>
       </c>
@@ -858,64 +872,67 @@
         <v>2</v>
       </c>
       <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6">
+        <v>15</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>39</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>1011</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>1012</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>1013</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>1014</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>1015</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>1016</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>1017</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>1018</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>1019</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>1020</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>1019</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>1020</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>101</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>102</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>103</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>3</v>
       </c>
@@ -932,67 +949,70 @@
         <v>3</v>
       </c>
       <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="H7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7">
+        <v>20</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>40</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>1021</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>1022</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>1023</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>1024</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>1025</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>1026</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>1027</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>1028</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>1029</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>1030</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>1029</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>1030</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>101</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>102</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>103</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>105</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>4</v>
       </c>
@@ -1009,64 +1029,67 @@
         <v>4</v>
       </c>
       <c r="G8">
-        <v>4</v>
-      </c>
-      <c r="H8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8">
+        <v>25</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>41</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>1031</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>1032</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>1033</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>1034</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>1035</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>1036</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>1037</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>1038</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>1039</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>1040</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>1039</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>1040</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>101</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>102</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>103</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>5</v>
       </c>
@@ -1083,79 +1106,82 @@
         <v>5</v>
       </c>
       <c r="G9">
-        <v>5</v>
-      </c>
-      <c r="H9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9">
+        <v>30</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>40</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>1041</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>1042</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>1043</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>1044</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>1045</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>1046</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>1047</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>1048</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>1049</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>1050</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>1049</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>1050</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>101</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>102</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>103</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>104</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>105</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>106</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="V1:AA1"/>
-    <mergeCell ref="V2:AA2"/>
-    <mergeCell ref="V3:AA3"/>
-    <mergeCell ref="V4:AA4"/>
-    <mergeCell ref="J1:U1"/>
-    <mergeCell ref="J2:U2"/>
-    <mergeCell ref="J3:U3"/>
-    <mergeCell ref="J4:U4"/>
+    <mergeCell ref="W1:AB1"/>
+    <mergeCell ref="W2:AB2"/>
+    <mergeCell ref="W3:AB3"/>
+    <mergeCell ref="W4:AB4"/>
+    <mergeCell ref="K1:V1"/>
+    <mergeCell ref="K2:V2"/>
+    <mergeCell ref="K3:V3"/>
+    <mergeCell ref="K4:V4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Luban/LubanConfig/Datas/#LevelData.xlsx
+++ b/Luban/LubanConfig/Datas/#LevelData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\TowerDefenseDemo\TowerDefense-TEngine-Demo\Luban\LubanConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCCDC8A-138C-44B5-B2BE-3037EFECB825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E7942E-9FFB-4724-B77B-036D1E44FB19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3735" yWindow="2565" windowWidth="21390" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11625" yWindow="1875" windowWidth="18600" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
   <si>
     <t>##var</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,34 +70,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第一关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第三关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第四关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第五关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>别让敌人冲过去</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -122,10 +98,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DescriptionId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>InitEnergy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -216,6 +188,44 @@
   <si>
     <t>初始生命值</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DescriptionName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level 1 Des</t>
+  </si>
+  <si>
+    <t>Level 2 Des</t>
+  </si>
+  <si>
+    <t>Level 3 Des</t>
+  </si>
+  <si>
+    <t>Level 4 Des</t>
+  </si>
+  <si>
+    <t>Level 5 Des</t>
+  </si>
+  <si>
+    <t>关卡文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level1</t>
+  </si>
+  <si>
+    <t>Level2</t>
+  </si>
+  <si>
+    <t>Level3</t>
+  </si>
+  <si>
+    <t>Level4</t>
+  </si>
+  <si>
+    <t>Level5</t>
   </si>
 </sst>
 </file>
@@ -547,13 +557,13 @@
   <dimension ref="A1:AB9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D5" sqref="D5:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="11.625" customWidth="1"/>
-    <col min="5" max="5" width="13.625" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="5" max="5" width="17.625" customWidth="1"/>
     <col min="6" max="7" width="12.125" customWidth="1"/>
     <col min="8" max="8" width="12.875" customWidth="1"/>
     <col min="9" max="9" width="35.625" style="1" customWidth="1"/>
@@ -579,25 +589,25 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
@@ -611,7 +621,7 @@
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
       <c r="W1" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
@@ -633,7 +643,7 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -645,13 +655,13 @@
         <v>7</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="J2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -665,7 +675,7 @@
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
       <c r="W2" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
@@ -735,31 +745,31 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="J4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -773,7 +783,7 @@
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
@@ -786,13 +796,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -804,10 +814,10 @@
         <v>10</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J5" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="K5">
         <v>1001</v>
@@ -860,13 +870,13 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -878,10 +888,10 @@
         <v>15</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="K6">
         <v>1011</v>
@@ -937,13 +947,13 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
+        <v>51</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -955,10 +965,10 @@
         <v>20</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="J7" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="K7">
         <v>1021</v>
@@ -1017,13 +1027,13 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
+        <v>52</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
       </c>
       <c r="F8">
         <v>4</v>
@@ -1035,10 +1045,10 @@
         <v>25</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="J8" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="K8">
         <v>1031</v>
@@ -1094,13 +1104,13 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
+        <v>53</v>
+      </c>
+      <c r="E9" t="s">
+        <v>47</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -1112,10 +1122,10 @@
         <v>30</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="J9" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="K9">
         <v>1041</v>

--- a/Luban/LubanConfig/Datas/#LevelData.xlsx
+++ b/Luban/LubanConfig/Datas/#LevelData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\TowerDefenseDemo\TowerDefense-TEngine-Demo\Luban\LubanConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E7942E-9FFB-4724-B77B-036D1E44FB19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB987CE-FD5A-4E79-B13D-137CAF85C0D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11625" yWindow="1875" windowWidth="18600" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4905" yWindow="2070" windowWidth="18600" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
   <si>
     <t>##var</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -226,6 +226,29 @@
   </si>
   <si>
     <t>Level5</t>
+  </si>
+  <si>
+    <t>packageName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level4Package</t>
+  </si>
+  <si>
+    <t>Level5Package</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level3Package</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -554,28 +577,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB9"/>
+  <dimension ref="A1:AC9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="5" max="5" width="17.625" customWidth="1"/>
-    <col min="6" max="7" width="12.125" customWidth="1"/>
-    <col min="8" max="8" width="12.875" customWidth="1"/>
-    <col min="9" max="9" width="35.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="31.375" customWidth="1"/>
-    <col min="11" max="18" width="6.125" customWidth="1"/>
-    <col min="19" max="19" width="8" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="8.625" hidden="1" customWidth="1"/>
-    <col min="21" max="22" width="4.625" customWidth="1"/>
-    <col min="23" max="28" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.125" customWidth="1"/>
+    <col min="6" max="6" width="17.625" customWidth="1"/>
+    <col min="7" max="8" width="12.125" customWidth="1"/>
+    <col min="9" max="9" width="12.875" customWidth="1"/>
+    <col min="10" max="10" width="35.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="31.375" customWidth="1"/>
+    <col min="12" max="19" width="6.125" customWidth="1"/>
+    <col min="20" max="20" width="8" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="8.625" hidden="1" customWidth="1"/>
+    <col min="22" max="23" width="4.625" customWidth="1"/>
+    <col min="24" max="29" width="4.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -589,27 +613,29 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" t="s">
         <v>42</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>40</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
@@ -620,16 +646,17 @@
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="2"/>
+      <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -646,7 +673,7 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
         <v>7</v>
@@ -654,16 +681,18 @@
       <c r="H2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -674,16 +703,17 @@
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
-      <c r="W2" s="2" t="s">
+      <c r="W2" s="2"/>
+      <c r="X2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -708,16 +738,18 @@
       <c r="H3" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" t="s">
         <v>9</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="2"/>
+      <c r="L3" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -728,16 +760,17 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
-      <c r="W3" s="2" t="s">
+      <c r="W3" s="2"/>
+      <c r="X3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -751,27 +784,29 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" t="s">
         <v>48</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>30</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>41</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -782,16 +817,17 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
-      <c r="W4" s="2" t="s">
+      <c r="W4" s="2"/>
+      <c r="X4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>1</v>
       </c>
@@ -802,70 +838,73 @@
         <v>49</v>
       </c>
       <c r="E5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" t="s">
         <v>43</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>1</v>
-      </c>
-      <c r="G5">
-        <v>10</v>
       </c>
       <c r="H5">
         <v>10</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5">
+        <v>10</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>39</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>1001</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>1002</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>1003</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>1004</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>1005</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>1006</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>1007</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>1008</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>1009</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>1010</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>1009</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>1010</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>101</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>102</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>2</v>
       </c>
@@ -876,73 +915,76 @@
         <v>50</v>
       </c>
       <c r="E6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" t="s">
         <v>44</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>2</v>
-      </c>
-      <c r="G6">
-        <v>15</v>
       </c>
       <c r="H6">
         <v>15</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6">
+        <v>15</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>32</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>1011</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>1012</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>1013</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>1014</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>1015</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>1016</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>1017</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>1018</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>1019</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>1020</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>1019</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>1020</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>101</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>102</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>103</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>3</v>
       </c>
@@ -953,76 +995,79 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" t="s">
         <v>45</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>3</v>
-      </c>
-      <c r="G7">
-        <v>20</v>
       </c>
       <c r="H7">
         <v>20</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7">
+        <v>20</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>33</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>1021</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>1022</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>1023</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>1024</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>1025</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>1026</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>1027</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>1028</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>1029</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>1030</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>1029</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>1030</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>101</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>102</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>103</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>105</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>4</v>
       </c>
@@ -1033,73 +1078,76 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" t="s">
         <v>46</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>4</v>
-      </c>
-      <c r="G8">
-        <v>25</v>
       </c>
       <c r="H8">
         <v>25</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8">
+        <v>25</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>34</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>1031</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>1032</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>1033</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>1034</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>1035</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>1036</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>1037</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>1038</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>1039</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>1040</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>1039</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>1040</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>101</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>102</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>103</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>5</v>
       </c>
@@ -1110,88 +1158,91 @@
         <v>53</v>
       </c>
       <c r="E9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" t="s">
         <v>47</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>5</v>
-      </c>
-      <c r="G9">
-        <v>30</v>
       </c>
       <c r="H9">
         <v>30</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9">
+        <v>30</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>33</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>1041</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>1042</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>1043</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>1044</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>1045</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>1046</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>1047</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>1048</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>1049</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>1050</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>1049</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>1050</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>101</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>102</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>103</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>104</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>105</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>106</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="W1:AB1"/>
-    <mergeCell ref="W2:AB2"/>
-    <mergeCell ref="W3:AB3"/>
-    <mergeCell ref="W4:AB4"/>
-    <mergeCell ref="K1:V1"/>
-    <mergeCell ref="K2:V2"/>
-    <mergeCell ref="K3:V3"/>
-    <mergeCell ref="K4:V4"/>
+    <mergeCell ref="X1:AC1"/>
+    <mergeCell ref="X2:AC2"/>
+    <mergeCell ref="X3:AC3"/>
+    <mergeCell ref="X4:AC4"/>
+    <mergeCell ref="L1:W1"/>
+    <mergeCell ref="L2:W2"/>
+    <mergeCell ref="L3:W3"/>
+    <mergeCell ref="L4:W4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Luban/LubanConfig/Datas/#LevelData.xlsx
+++ b/Luban/LubanConfig/Datas/#LevelData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\TowerDefenseDemo\TowerDefense-TEngine-Demo\Luban\LubanConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB987CE-FD5A-4E79-B13D-137CAF85C0D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23EF7395-EB9D-4F1E-A4AA-EEB9B599EA5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4905" yWindow="2070" windowWidth="18600" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="63">
   <si>
     <t>##var</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -236,18 +236,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Level4Package</t>
-  </si>
-  <si>
-    <t>Level5Package</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level3Package</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -577,29 +590,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC9"/>
+  <dimension ref="A1:AD9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="5" max="5" width="16.125" customWidth="1"/>
-    <col min="6" max="6" width="17.625" customWidth="1"/>
-    <col min="7" max="8" width="12.125" customWidth="1"/>
-    <col min="9" max="9" width="12.875" customWidth="1"/>
-    <col min="10" max="10" width="35.625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="31.375" customWidth="1"/>
-    <col min="12" max="19" width="6.125" customWidth="1"/>
-    <col min="20" max="20" width="8" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="8.625" hidden="1" customWidth="1"/>
-    <col min="22" max="23" width="4.625" customWidth="1"/>
-    <col min="24" max="29" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.125" customWidth="1"/>
+    <col min="7" max="7" width="17.625" customWidth="1"/>
+    <col min="8" max="9" width="12.125" customWidth="1"/>
+    <col min="10" max="10" width="12.875" customWidth="1"/>
+    <col min="11" max="11" width="35.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="31.375" customWidth="1"/>
+    <col min="13" max="20" width="6.125" customWidth="1"/>
+    <col min="21" max="21" width="8" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="8.625" hidden="1" customWidth="1"/>
+    <col min="23" max="24" width="4.625" customWidth="1"/>
+    <col min="25" max="30" width="4.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -613,30 +626,32 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" t="s">
         <v>54</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>42</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>40</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
@@ -647,16 +662,17 @@
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -676,7 +692,7 @@
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" t="s">
         <v>7</v>
@@ -684,16 +700,18 @@
       <c r="I2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -704,16 +722,17 @@
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
-      <c r="X2" s="2" t="s">
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -741,16 +760,18 @@
       <c r="I3" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" t="s">
         <v>9</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="2"/>
+      <c r="M3" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
@@ -761,16 +782,17 @@
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
-      <c r="X3" s="2" t="s">
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -784,30 +806,32 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" t="s">
         <v>55</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>30</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>41</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
@@ -818,16 +842,17 @@
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
-      <c r="X4" s="2" t="s">
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>1</v>
       </c>
@@ -841,70 +866,73 @@
         <v>59</v>
       </c>
       <c r="F5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" t="s">
         <v>43</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>1</v>
-      </c>
-      <c r="H5">
-        <v>10</v>
       </c>
       <c r="I5">
         <v>10</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5">
+        <v>10</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>39</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>1001</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>1002</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>1003</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>1004</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>1005</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>1006</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>1007</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>1008</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>1009</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>1010</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>1009</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>1010</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>101</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>102</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>2</v>
       </c>
@@ -918,73 +946,76 @@
         <v>59</v>
       </c>
       <c r="F6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" t="s">
         <v>44</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>2</v>
-      </c>
-      <c r="H6">
-        <v>15</v>
       </c>
       <c r="I6">
         <v>15</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6">
+        <v>15</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>32</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>1011</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>1012</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>1013</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>1014</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>1015</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>1016</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>1017</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>1018</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>1019</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>1020</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>1019</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>1020</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>101</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>102</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>103</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>3</v>
       </c>
@@ -995,79 +1026,82 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" t="s">
         <v>45</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>3</v>
-      </c>
-      <c r="H7">
-        <v>20</v>
       </c>
       <c r="I7">
         <v>20</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7">
+        <v>20</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>33</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>1021</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>1022</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>1023</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>1024</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>1025</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>1026</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>1027</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>1028</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>1029</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>1030</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>1029</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>1030</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>101</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>102</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>103</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>105</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>4</v>
       </c>
@@ -1078,76 +1112,79 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" t="s">
         <v>56</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>46</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>4</v>
-      </c>
-      <c r="H8">
-        <v>25</v>
       </c>
       <c r="I8">
         <v>25</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8">
+        <v>25</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>34</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>1031</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>1032</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>1033</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>1034</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>1035</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>1036</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>1037</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>1038</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>1039</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>1040</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>1039</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>1040</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>101</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>102</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>103</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>5</v>
       </c>
@@ -1158,91 +1195,94 @@
         <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" t="s">
         <v>47</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>5</v>
-      </c>
-      <c r="H9">
-        <v>30</v>
       </c>
       <c r="I9">
         <v>30</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9">
+        <v>30</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>33</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>1041</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>1042</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>1043</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>1044</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>1045</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>1046</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>1047</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>1048</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>1049</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>1050</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>1049</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>1050</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>101</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>102</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>103</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>104</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>105</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>106</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="X1:AC1"/>
-    <mergeCell ref="X2:AC2"/>
-    <mergeCell ref="X3:AC3"/>
-    <mergeCell ref="X4:AC4"/>
-    <mergeCell ref="L1:W1"/>
-    <mergeCell ref="L2:W2"/>
-    <mergeCell ref="L3:W3"/>
-    <mergeCell ref="L4:W4"/>
+    <mergeCell ref="Y1:AD1"/>
+    <mergeCell ref="Y2:AD2"/>
+    <mergeCell ref="Y3:AD3"/>
+    <mergeCell ref="Y4:AD4"/>
+    <mergeCell ref="M1:X1"/>
+    <mergeCell ref="M2:X2"/>
+    <mergeCell ref="M3:X3"/>
+    <mergeCell ref="M4:X4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
